--- a/elo/python/ski/ladies/ladiesupdate.xlsx
+++ b/elo/python/ski/ladies/ladiesupdate.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5182" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5566" uniqueCount="171">
   <si>
     <t>date</t>
   </si>
@@ -884,7 +884,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P655"/>
+  <dimension ref="A1:P703"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -33442,6 +33442,2406 @@
         <v>1157.231076225997</v>
       </c>
     </row>
+    <row r="656" spans="1:16">
+      <c r="A656" s="1">
+        <v>0</v>
+      </c>
+      <c r="B656">
+        <v>20210106</v>
+      </c>
+      <c r="C656" t="s">
+        <v>20</v>
+      </c>
+      <c r="D656" t="s">
+        <v>25</v>
+      </c>
+      <c r="E656" t="s">
+        <v>26</v>
+      </c>
+      <c r="F656" t="s">
+        <v>27</v>
+      </c>
+      <c r="G656" t="s">
+        <v>29</v>
+      </c>
+      <c r="H656" t="s">
+        <v>31</v>
+      </c>
+      <c r="I656">
+        <v>1</v>
+      </c>
+      <c r="J656" t="s">
+        <v>60</v>
+      </c>
+      <c r="K656" t="s">
+        <v>153</v>
+      </c>
+      <c r="L656">
+        <v>1666</v>
+      </c>
+      <c r="M656">
+        <v>2021</v>
+      </c>
+      <c r="N656">
+        <v>12</v>
+      </c>
+      <c r="O656">
+        <v>1576.942255671071</v>
+      </c>
+      <c r="P656">
+        <v>1591.643049496632</v>
+      </c>
+    </row>
+    <row r="657" spans="1:16">
+      <c r="A657" s="1">
+        <v>1</v>
+      </c>
+      <c r="B657">
+        <v>20210106</v>
+      </c>
+      <c r="C657" t="s">
+        <v>20</v>
+      </c>
+      <c r="D657" t="s">
+        <v>25</v>
+      </c>
+      <c r="E657" t="s">
+        <v>26</v>
+      </c>
+      <c r="F657" t="s">
+        <v>27</v>
+      </c>
+      <c r="G657" t="s">
+        <v>29</v>
+      </c>
+      <c r="H657" t="s">
+        <v>31</v>
+      </c>
+      <c r="I657">
+        <v>2</v>
+      </c>
+      <c r="J657" t="s">
+        <v>68</v>
+      </c>
+      <c r="K657" t="s">
+        <v>150</v>
+      </c>
+      <c r="L657">
+        <v>1789</v>
+      </c>
+      <c r="M657">
+        <v>2021</v>
+      </c>
+      <c r="N657">
+        <v>12</v>
+      </c>
+      <c r="O657">
+        <v>1675.053520287333</v>
+      </c>
+      <c r="P657">
+        <v>1684.167033328951</v>
+      </c>
+    </row>
+    <row r="658" spans="1:16">
+      <c r="A658" s="1">
+        <v>2</v>
+      </c>
+      <c r="B658">
+        <v>20210106</v>
+      </c>
+      <c r="C658" t="s">
+        <v>20</v>
+      </c>
+      <c r="D658" t="s">
+        <v>25</v>
+      </c>
+      <c r="E658" t="s">
+        <v>26</v>
+      </c>
+      <c r="F658" t="s">
+        <v>27</v>
+      </c>
+      <c r="G658" t="s">
+        <v>29</v>
+      </c>
+      <c r="H658" t="s">
+        <v>31</v>
+      </c>
+      <c r="I658">
+        <v>3</v>
+      </c>
+      <c r="J658" t="s">
+        <v>56</v>
+      </c>
+      <c r="K658" t="s">
+        <v>155</v>
+      </c>
+      <c r="L658">
+        <v>131</v>
+      </c>
+      <c r="M658">
+        <v>2021</v>
+      </c>
+      <c r="N658">
+        <v>12</v>
+      </c>
+      <c r="O658">
+        <v>1689.920948408238</v>
+      </c>
+      <c r="P658">
+        <v>1697.423322798003</v>
+      </c>
+    </row>
+    <row r="659" spans="1:16">
+      <c r="A659" s="1">
+        <v>3</v>
+      </c>
+      <c r="B659">
+        <v>20210106</v>
+      </c>
+      <c r="C659" t="s">
+        <v>20</v>
+      </c>
+      <c r="D659" t="s">
+        <v>25</v>
+      </c>
+      <c r="E659" t="s">
+        <v>26</v>
+      </c>
+      <c r="F659" t="s">
+        <v>27</v>
+      </c>
+      <c r="G659" t="s">
+        <v>29</v>
+      </c>
+      <c r="H659" t="s">
+        <v>31</v>
+      </c>
+      <c r="I659">
+        <v>4</v>
+      </c>
+      <c r="J659" t="s">
+        <v>49</v>
+      </c>
+      <c r="K659" t="s">
+        <v>155</v>
+      </c>
+      <c r="L659">
+        <v>627</v>
+      </c>
+      <c r="M659">
+        <v>2021</v>
+      </c>
+      <c r="N659">
+        <v>12</v>
+      </c>
+      <c r="O659">
+        <v>1663.292073710376</v>
+      </c>
+      <c r="P659">
+        <v>1670.905506307425</v>
+      </c>
+    </row>
+    <row r="660" spans="1:16">
+      <c r="A660" s="1">
+        <v>4</v>
+      </c>
+      <c r="B660">
+        <v>20210106</v>
+      </c>
+      <c r="C660" t="s">
+        <v>20</v>
+      </c>
+      <c r="D660" t="s">
+        <v>25</v>
+      </c>
+      <c r="E660" t="s">
+        <v>26</v>
+      </c>
+      <c r="F660" t="s">
+        <v>27</v>
+      </c>
+      <c r="G660" t="s">
+        <v>29</v>
+      </c>
+      <c r="H660" t="s">
+        <v>31</v>
+      </c>
+      <c r="I660">
+        <v>5</v>
+      </c>
+      <c r="J660" t="s">
+        <v>64</v>
+      </c>
+      <c r="K660" t="s">
+        <v>21</v>
+      </c>
+      <c r="L660">
+        <v>13</v>
+      </c>
+      <c r="M660">
+        <v>2021</v>
+      </c>
+      <c r="N660">
+        <v>12</v>
+      </c>
+      <c r="O660">
+        <v>1645.152774157023</v>
+      </c>
+      <c r="P660">
+        <v>1652.565164355076</v>
+      </c>
+    </row>
+    <row r="661" spans="1:16">
+      <c r="A661" s="1">
+        <v>5</v>
+      </c>
+      <c r="B661">
+        <v>20210106</v>
+      </c>
+      <c r="C661" t="s">
+        <v>20</v>
+      </c>
+      <c r="D661" t="s">
+        <v>25</v>
+      </c>
+      <c r="E661" t="s">
+        <v>26</v>
+      </c>
+      <c r="F661" t="s">
+        <v>27</v>
+      </c>
+      <c r="G661" t="s">
+        <v>29</v>
+      </c>
+      <c r="H661" t="s">
+        <v>31</v>
+      </c>
+      <c r="I661">
+        <v>6</v>
+      </c>
+      <c r="J661" t="s">
+        <v>45</v>
+      </c>
+      <c r="K661" t="s">
+        <v>153</v>
+      </c>
+      <c r="L661">
+        <v>1860</v>
+      </c>
+      <c r="M661">
+        <v>2021</v>
+      </c>
+      <c r="N661">
+        <v>12</v>
+      </c>
+      <c r="O661">
+        <v>1522.319688848219</v>
+      </c>
+      <c r="P661">
+        <v>1534.931741284169</v>
+      </c>
+    </row>
+    <row r="662" spans="1:16">
+      <c r="A662" s="1">
+        <v>6</v>
+      </c>
+      <c r="B662">
+        <v>20210106</v>
+      </c>
+      <c r="C662" t="s">
+        <v>20</v>
+      </c>
+      <c r="D662" t="s">
+        <v>25</v>
+      </c>
+      <c r="E662" t="s">
+        <v>26</v>
+      </c>
+      <c r="F662" t="s">
+        <v>27</v>
+      </c>
+      <c r="G662" t="s">
+        <v>29</v>
+      </c>
+      <c r="H662" t="s">
+        <v>31</v>
+      </c>
+      <c r="I662">
+        <v>7</v>
+      </c>
+      <c r="J662" t="s">
+        <v>88</v>
+      </c>
+      <c r="K662" t="s">
+        <v>153</v>
+      </c>
+      <c r="L662">
+        <v>1585</v>
+      </c>
+      <c r="M662">
+        <v>2021</v>
+      </c>
+      <c r="N662">
+        <v>12</v>
+      </c>
+      <c r="O662">
+        <v>1420.137174485581</v>
+      </c>
+      <c r="P662">
+        <v>1437.610258395562</v>
+      </c>
+    </row>
+    <row r="663" spans="1:16">
+      <c r="A663" s="1">
+        <v>7</v>
+      </c>
+      <c r="B663">
+        <v>20210106</v>
+      </c>
+      <c r="C663" t="s">
+        <v>20</v>
+      </c>
+      <c r="D663" t="s">
+        <v>25</v>
+      </c>
+      <c r="E663" t="s">
+        <v>26</v>
+      </c>
+      <c r="F663" t="s">
+        <v>27</v>
+      </c>
+      <c r="G663" t="s">
+        <v>29</v>
+      </c>
+      <c r="H663" t="s">
+        <v>31</v>
+      </c>
+      <c r="I663">
+        <v>8</v>
+      </c>
+      <c r="J663" t="s">
+        <v>67</v>
+      </c>
+      <c r="K663" t="s">
+        <v>24</v>
+      </c>
+      <c r="L663">
+        <v>1618</v>
+      </c>
+      <c r="M663">
+        <v>2021</v>
+      </c>
+      <c r="N663">
+        <v>12</v>
+      </c>
+      <c r="O663">
+        <v>1539.973225873109</v>
+      </c>
+      <c r="P663">
+        <v>1549.621431878111</v>
+      </c>
+    </row>
+    <row r="664" spans="1:16">
+      <c r="A664" s="1">
+        <v>8</v>
+      </c>
+      <c r="B664">
+        <v>20210106</v>
+      </c>
+      <c r="C664" t="s">
+        <v>20</v>
+      </c>
+      <c r="D664" t="s">
+        <v>25</v>
+      </c>
+      <c r="E664" t="s">
+        <v>26</v>
+      </c>
+      <c r="F664" t="s">
+        <v>27</v>
+      </c>
+      <c r="G664" t="s">
+        <v>29</v>
+      </c>
+      <c r="H664" t="s">
+        <v>31</v>
+      </c>
+      <c r="I664">
+        <v>9</v>
+      </c>
+      <c r="J664" t="s">
+        <v>81</v>
+      </c>
+      <c r="K664" t="s">
+        <v>157</v>
+      </c>
+      <c r="L664">
+        <v>1661</v>
+      </c>
+      <c r="M664">
+        <v>2021</v>
+      </c>
+      <c r="N664">
+        <v>12</v>
+      </c>
+      <c r="O664">
+        <v>1501.051286720985</v>
+      </c>
+      <c r="P664">
+        <v>1511.849165785074</v>
+      </c>
+    </row>
+    <row r="665" spans="1:16">
+      <c r="A665" s="1">
+        <v>9</v>
+      </c>
+      <c r="B665">
+        <v>20210106</v>
+      </c>
+      <c r="C665" t="s">
+        <v>20</v>
+      </c>
+      <c r="D665" t="s">
+        <v>25</v>
+      </c>
+      <c r="E665" t="s">
+        <v>26</v>
+      </c>
+      <c r="F665" t="s">
+        <v>27</v>
+      </c>
+      <c r="G665" t="s">
+        <v>29</v>
+      </c>
+      <c r="H665" t="s">
+        <v>31</v>
+      </c>
+      <c r="I665">
+        <v>10</v>
+      </c>
+      <c r="J665" t="s">
+        <v>41</v>
+      </c>
+      <c r="K665" t="s">
+        <v>153</v>
+      </c>
+      <c r="L665">
+        <v>571</v>
+      </c>
+      <c r="M665">
+        <v>2021</v>
+      </c>
+      <c r="N665">
+        <v>12</v>
+      </c>
+      <c r="O665">
+        <v>1697.081915795396</v>
+      </c>
+      <c r="P665">
+        <v>1697.298313185391</v>
+      </c>
+    </row>
+    <row r="666" spans="1:16">
+      <c r="A666" s="1">
+        <v>10</v>
+      </c>
+      <c r="B666">
+        <v>20210106</v>
+      </c>
+      <c r="C666" t="s">
+        <v>20</v>
+      </c>
+      <c r="D666" t="s">
+        <v>25</v>
+      </c>
+      <c r="E666" t="s">
+        <v>26</v>
+      </c>
+      <c r="F666" t="s">
+        <v>27</v>
+      </c>
+      <c r="G666" t="s">
+        <v>29</v>
+      </c>
+      <c r="H666" t="s">
+        <v>31</v>
+      </c>
+      <c r="I666">
+        <v>11</v>
+      </c>
+      <c r="J666" t="s">
+        <v>86</v>
+      </c>
+      <c r="K666" t="s">
+        <v>153</v>
+      </c>
+      <c r="L666">
+        <v>1840</v>
+      </c>
+      <c r="M666">
+        <v>2021</v>
+      </c>
+      <c r="N666">
+        <v>12</v>
+      </c>
+      <c r="O666">
+        <v>1393.302237386211</v>
+      </c>
+      <c r="P666">
+        <v>1408.349106587683</v>
+      </c>
+    </row>
+    <row r="667" spans="1:16">
+      <c r="A667" s="1">
+        <v>11</v>
+      </c>
+      <c r="B667">
+        <v>20210106</v>
+      </c>
+      <c r="C667" t="s">
+        <v>20</v>
+      </c>
+      <c r="D667" t="s">
+        <v>25</v>
+      </c>
+      <c r="E667" t="s">
+        <v>26</v>
+      </c>
+      <c r="F667" t="s">
+        <v>27</v>
+      </c>
+      <c r="G667" t="s">
+        <v>29</v>
+      </c>
+      <c r="H667" t="s">
+        <v>31</v>
+      </c>
+      <c r="I667">
+        <v>12</v>
+      </c>
+      <c r="J667" t="s">
+        <v>77</v>
+      </c>
+      <c r="K667" t="s">
+        <v>158</v>
+      </c>
+      <c r="L667">
+        <v>529</v>
+      </c>
+      <c r="M667">
+        <v>2021</v>
+      </c>
+      <c r="N667">
+        <v>12</v>
+      </c>
+      <c r="O667">
+        <v>1536.983956874567</v>
+      </c>
+      <c r="P667">
+        <v>1542.793949499239</v>
+      </c>
+    </row>
+    <row r="668" spans="1:16">
+      <c r="A668" s="1">
+        <v>12</v>
+      </c>
+      <c r="B668">
+        <v>20210106</v>
+      </c>
+      <c r="C668" t="s">
+        <v>20</v>
+      </c>
+      <c r="D668" t="s">
+        <v>25</v>
+      </c>
+      <c r="E668" t="s">
+        <v>26</v>
+      </c>
+      <c r="F668" t="s">
+        <v>27</v>
+      </c>
+      <c r="G668" t="s">
+        <v>29</v>
+      </c>
+      <c r="H668" t="s">
+        <v>31</v>
+      </c>
+      <c r="I668">
+        <v>13</v>
+      </c>
+      <c r="J668" t="s">
+        <v>47</v>
+      </c>
+      <c r="K668" t="s">
+        <v>150</v>
+      </c>
+      <c r="L668">
+        <v>3998</v>
+      </c>
+      <c r="M668">
+        <v>2021</v>
+      </c>
+      <c r="N668">
+        <v>12</v>
+      </c>
+      <c r="O668">
+        <v>1646.45160383797</v>
+      </c>
+      <c r="P668">
+        <v>1645.805675961583</v>
+      </c>
+    </row>
+    <row r="669" spans="1:16">
+      <c r="A669" s="1">
+        <v>13</v>
+      </c>
+      <c r="B669">
+        <v>20210106</v>
+      </c>
+      <c r="C669" t="s">
+        <v>20</v>
+      </c>
+      <c r="D669" t="s">
+        <v>25</v>
+      </c>
+      <c r="E669" t="s">
+        <v>26</v>
+      </c>
+      <c r="F669" t="s">
+        <v>27</v>
+      </c>
+      <c r="G669" t="s">
+        <v>29</v>
+      </c>
+      <c r="H669" t="s">
+        <v>31</v>
+      </c>
+      <c r="I669">
+        <v>14</v>
+      </c>
+      <c r="J669" t="s">
+        <v>39</v>
+      </c>
+      <c r="K669" t="s">
+        <v>152</v>
+      </c>
+      <c r="L669">
+        <v>509</v>
+      </c>
+      <c r="M669">
+        <v>2021</v>
+      </c>
+      <c r="N669">
+        <v>12</v>
+      </c>
+      <c r="O669">
+        <v>1629.000699926527</v>
+      </c>
+      <c r="P669">
+        <v>1628.152329556593</v>
+      </c>
+    </row>
+    <row r="670" spans="1:16">
+      <c r="A670" s="1">
+        <v>14</v>
+      </c>
+      <c r="B670">
+        <v>20210106</v>
+      </c>
+      <c r="C670" t="s">
+        <v>20</v>
+      </c>
+      <c r="D670" t="s">
+        <v>25</v>
+      </c>
+      <c r="E670" t="s">
+        <v>26</v>
+      </c>
+      <c r="F670" t="s">
+        <v>27</v>
+      </c>
+      <c r="G670" t="s">
+        <v>29</v>
+      </c>
+      <c r="H670" t="s">
+        <v>31</v>
+      </c>
+      <c r="I670">
+        <v>15</v>
+      </c>
+      <c r="J670" t="s">
+        <v>63</v>
+      </c>
+      <c r="K670" t="s">
+        <v>21</v>
+      </c>
+      <c r="L670">
+        <v>1761</v>
+      </c>
+      <c r="M670">
+        <v>2021</v>
+      </c>
+      <c r="N670">
+        <v>12</v>
+      </c>
+      <c r="O670">
+        <v>1403.965907336897</v>
+      </c>
+      <c r="P670">
+        <v>1414.387611599337</v>
+      </c>
+    </row>
+    <row r="671" spans="1:16">
+      <c r="A671" s="1">
+        <v>15</v>
+      </c>
+      <c r="B671">
+        <v>20210106</v>
+      </c>
+      <c r="C671" t="s">
+        <v>20</v>
+      </c>
+      <c r="D671" t="s">
+        <v>25</v>
+      </c>
+      <c r="E671" t="s">
+        <v>26</v>
+      </c>
+      <c r="F671" t="s">
+        <v>27</v>
+      </c>
+      <c r="G671" t="s">
+        <v>29</v>
+      </c>
+      <c r="H671" t="s">
+        <v>31</v>
+      </c>
+      <c r="I671">
+        <v>16</v>
+      </c>
+      <c r="J671" t="s">
+        <v>42</v>
+      </c>
+      <c r="K671" t="s">
+        <v>23</v>
+      </c>
+      <c r="L671">
+        <v>1590</v>
+      </c>
+      <c r="M671">
+        <v>2021</v>
+      </c>
+      <c r="N671">
+        <v>12</v>
+      </c>
+      <c r="O671">
+        <v>1593.276605207747</v>
+      </c>
+      <c r="P671">
+        <v>1592.151534865088</v>
+      </c>
+    </row>
+    <row r="672" spans="1:16">
+      <c r="A672" s="1">
+        <v>16</v>
+      </c>
+      <c r="B672">
+        <v>20210106</v>
+      </c>
+      <c r="C672" t="s">
+        <v>20</v>
+      </c>
+      <c r="D672" t="s">
+        <v>25</v>
+      </c>
+      <c r="E672" t="s">
+        <v>26</v>
+      </c>
+      <c r="F672" t="s">
+        <v>27</v>
+      </c>
+      <c r="G672" t="s">
+        <v>29</v>
+      </c>
+      <c r="H672" t="s">
+        <v>31</v>
+      </c>
+      <c r="I672">
+        <v>17</v>
+      </c>
+      <c r="J672" t="s">
+        <v>78</v>
+      </c>
+      <c r="K672" t="s">
+        <v>25</v>
+      </c>
+      <c r="L672">
+        <v>1724</v>
+      </c>
+      <c r="M672">
+        <v>2021</v>
+      </c>
+      <c r="N672">
+        <v>12</v>
+      </c>
+      <c r="O672">
+        <v>1408.519171691547</v>
+      </c>
+      <c r="P672">
+        <v>1416.673767042602</v>
+      </c>
+    </row>
+    <row r="673" spans="1:16">
+      <c r="A673" s="1">
+        <v>17</v>
+      </c>
+      <c r="B673">
+        <v>20210106</v>
+      </c>
+      <c r="C673" t="s">
+        <v>20</v>
+      </c>
+      <c r="D673" t="s">
+        <v>25</v>
+      </c>
+      <c r="E673" t="s">
+        <v>26</v>
+      </c>
+      <c r="F673" t="s">
+        <v>27</v>
+      </c>
+      <c r="G673" t="s">
+        <v>29</v>
+      </c>
+      <c r="H673" t="s">
+        <v>31</v>
+      </c>
+      <c r="I673">
+        <v>18</v>
+      </c>
+      <c r="J673" t="s">
+        <v>89</v>
+      </c>
+      <c r="K673" t="s">
+        <v>159</v>
+      </c>
+      <c r="L673">
+        <v>1694</v>
+      </c>
+      <c r="M673">
+        <v>2021</v>
+      </c>
+      <c r="N673">
+        <v>12</v>
+      </c>
+      <c r="O673">
+        <v>1433.66449837311</v>
+      </c>
+      <c r="P673">
+        <v>1439.345131228193</v>
+      </c>
+    </row>
+    <row r="674" spans="1:16">
+      <c r="A674" s="1">
+        <v>18</v>
+      </c>
+      <c r="B674">
+        <v>20210106</v>
+      </c>
+      <c r="C674" t="s">
+        <v>20</v>
+      </c>
+      <c r="D674" t="s">
+        <v>25</v>
+      </c>
+      <c r="E674" t="s">
+        <v>26</v>
+      </c>
+      <c r="F674" t="s">
+        <v>27</v>
+      </c>
+      <c r="G674" t="s">
+        <v>29</v>
+      </c>
+      <c r="H674" t="s">
+        <v>31</v>
+      </c>
+      <c r="I674">
+        <v>19</v>
+      </c>
+      <c r="J674" t="s">
+        <v>34</v>
+      </c>
+      <c r="K674" t="s">
+        <v>150</v>
+      </c>
+      <c r="L674">
+        <v>1673</v>
+      </c>
+      <c r="M674">
+        <v>2021</v>
+      </c>
+      <c r="N674">
+        <v>12</v>
+      </c>
+      <c r="O674">
+        <v>1556.847734604575</v>
+      </c>
+      <c r="P674">
+        <v>1554.594333089845</v>
+      </c>
+    </row>
+    <row r="675" spans="1:16">
+      <c r="A675" s="1">
+        <v>19</v>
+      </c>
+      <c r="B675">
+        <v>20210106</v>
+      </c>
+      <c r="C675" t="s">
+        <v>20</v>
+      </c>
+      <c r="D675" t="s">
+        <v>25</v>
+      </c>
+      <c r="E675" t="s">
+        <v>26</v>
+      </c>
+      <c r="F675" t="s">
+        <v>27</v>
+      </c>
+      <c r="G675" t="s">
+        <v>29</v>
+      </c>
+      <c r="H675" t="s">
+        <v>31</v>
+      </c>
+      <c r="I675">
+        <v>20</v>
+      </c>
+      <c r="J675" t="s">
+        <v>98</v>
+      </c>
+      <c r="K675" t="s">
+        <v>155</v>
+      </c>
+      <c r="L675">
+        <v>1865</v>
+      </c>
+      <c r="M675">
+        <v>2021</v>
+      </c>
+      <c r="N675">
+        <v>12</v>
+      </c>
+      <c r="O675">
+        <v>1277.07415471264</v>
+      </c>
+      <c r="P675">
+        <v>1289.707146157653</v>
+      </c>
+    </row>
+    <row r="676" spans="1:16">
+      <c r="A676" s="1">
+        <v>20</v>
+      </c>
+      <c r="B676">
+        <v>20210106</v>
+      </c>
+      <c r="C676" t="s">
+        <v>20</v>
+      </c>
+      <c r="D676" t="s">
+        <v>25</v>
+      </c>
+      <c r="E676" t="s">
+        <v>26</v>
+      </c>
+      <c r="F676" t="s">
+        <v>27</v>
+      </c>
+      <c r="G676" t="s">
+        <v>29</v>
+      </c>
+      <c r="H676" t="s">
+        <v>31</v>
+      </c>
+      <c r="I676">
+        <v>21</v>
+      </c>
+      <c r="J676" t="s">
+        <v>43</v>
+      </c>
+      <c r="K676" t="s">
+        <v>25</v>
+      </c>
+      <c r="L676">
+        <v>515</v>
+      </c>
+      <c r="M676">
+        <v>2021</v>
+      </c>
+      <c r="N676">
+        <v>12</v>
+      </c>
+      <c r="O676">
+        <v>1391.768098138588</v>
+      </c>
+      <c r="P676">
+        <v>1396.904829963831</v>
+      </c>
+    </row>
+    <row r="677" spans="1:16">
+      <c r="A677" s="1">
+        <v>21</v>
+      </c>
+      <c r="B677">
+        <v>20210106</v>
+      </c>
+      <c r="C677" t="s">
+        <v>20</v>
+      </c>
+      <c r="D677" t="s">
+        <v>25</v>
+      </c>
+      <c r="E677" t="s">
+        <v>26</v>
+      </c>
+      <c r="F677" t="s">
+        <v>27</v>
+      </c>
+      <c r="G677" t="s">
+        <v>29</v>
+      </c>
+      <c r="H677" t="s">
+        <v>31</v>
+      </c>
+      <c r="I677">
+        <v>22</v>
+      </c>
+      <c r="J677" t="s">
+        <v>50</v>
+      </c>
+      <c r="K677" t="s">
+        <v>155</v>
+      </c>
+      <c r="L677">
+        <v>1849</v>
+      </c>
+      <c r="M677">
+        <v>2021</v>
+      </c>
+      <c r="N677">
+        <v>12</v>
+      </c>
+      <c r="O677">
+        <v>1445.608788848618</v>
+      </c>
+      <c r="P677">
+        <v>1446.591752099072</v>
+      </c>
+    </row>
+    <row r="678" spans="1:16">
+      <c r="A678" s="1">
+        <v>22</v>
+      </c>
+      <c r="B678">
+        <v>20210106</v>
+      </c>
+      <c r="C678" t="s">
+        <v>20</v>
+      </c>
+      <c r="D678" t="s">
+        <v>25</v>
+      </c>
+      <c r="E678" t="s">
+        <v>26</v>
+      </c>
+      <c r="F678" t="s">
+        <v>27</v>
+      </c>
+      <c r="G678" t="s">
+        <v>29</v>
+      </c>
+      <c r="H678" t="s">
+        <v>31</v>
+      </c>
+      <c r="I678">
+        <v>23</v>
+      </c>
+      <c r="J678" t="s">
+        <v>33</v>
+      </c>
+      <c r="K678" t="s">
+        <v>150</v>
+      </c>
+      <c r="L678">
+        <v>3190</v>
+      </c>
+      <c r="M678">
+        <v>2021</v>
+      </c>
+      <c r="N678">
+        <v>12</v>
+      </c>
+      <c r="O678">
+        <v>1575.677887008118</v>
+      </c>
+      <c r="P678">
+        <v>1568.443538206336</v>
+      </c>
+    </row>
+    <row r="679" spans="1:16">
+      <c r="A679" s="1">
+        <v>23</v>
+      </c>
+      <c r="B679">
+        <v>20210106</v>
+      </c>
+      <c r="C679" t="s">
+        <v>20</v>
+      </c>
+      <c r="D679" t="s">
+        <v>25</v>
+      </c>
+      <c r="E679" t="s">
+        <v>26</v>
+      </c>
+      <c r="F679" t="s">
+        <v>27</v>
+      </c>
+      <c r="G679" t="s">
+        <v>29</v>
+      </c>
+      <c r="H679" t="s">
+        <v>31</v>
+      </c>
+      <c r="I679">
+        <v>24</v>
+      </c>
+      <c r="J679" t="s">
+        <v>71</v>
+      </c>
+      <c r="K679" t="s">
+        <v>153</v>
+      </c>
+      <c r="L679">
+        <v>5012</v>
+      </c>
+      <c r="M679">
+        <v>2021</v>
+      </c>
+      <c r="N679">
+        <v>12</v>
+      </c>
+      <c r="O679">
+        <v>1365.94150418046</v>
+      </c>
+      <c r="P679">
+        <v>1369.585428944704</v>
+      </c>
+    </row>
+    <row r="680" spans="1:16">
+      <c r="A680" s="1">
+        <v>24</v>
+      </c>
+      <c r="B680">
+        <v>20210106</v>
+      </c>
+      <c r="C680" t="s">
+        <v>20</v>
+      </c>
+      <c r="D680" t="s">
+        <v>25</v>
+      </c>
+      <c r="E680" t="s">
+        <v>26</v>
+      </c>
+      <c r="F680" t="s">
+        <v>27</v>
+      </c>
+      <c r="G680" t="s">
+        <v>29</v>
+      </c>
+      <c r="H680" t="s">
+        <v>31</v>
+      </c>
+      <c r="I680">
+        <v>25</v>
+      </c>
+      <c r="J680" t="s">
+        <v>38</v>
+      </c>
+      <c r="K680" t="s">
+        <v>150</v>
+      </c>
+      <c r="L680">
+        <v>1844</v>
+      </c>
+      <c r="M680">
+        <v>2021</v>
+      </c>
+      <c r="N680">
+        <v>12</v>
+      </c>
+      <c r="O680">
+        <v>1547.233489423265</v>
+      </c>
+      <c r="P680">
+        <v>1539.491296693876</v>
+      </c>
+    </row>
+    <row r="681" spans="1:16">
+      <c r="A681" s="1">
+        <v>25</v>
+      </c>
+      <c r="B681">
+        <v>20210106</v>
+      </c>
+      <c r="C681" t="s">
+        <v>20</v>
+      </c>
+      <c r="D681" t="s">
+        <v>25</v>
+      </c>
+      <c r="E681" t="s">
+        <v>26</v>
+      </c>
+      <c r="F681" t="s">
+        <v>27</v>
+      </c>
+      <c r="G681" t="s">
+        <v>29</v>
+      </c>
+      <c r="H681" t="s">
+        <v>31</v>
+      </c>
+      <c r="I681">
+        <v>26</v>
+      </c>
+      <c r="J681" t="s">
+        <v>73</v>
+      </c>
+      <c r="K681" t="s">
+        <v>156</v>
+      </c>
+      <c r="L681">
+        <v>3240</v>
+      </c>
+      <c r="M681">
+        <v>2021</v>
+      </c>
+      <c r="N681">
+        <v>12</v>
+      </c>
+      <c r="O681">
+        <v>1353.939819365779</v>
+      </c>
+      <c r="P681">
+        <v>1356.278752851105</v>
+      </c>
+    </row>
+    <row r="682" spans="1:16">
+      <c r="A682" s="1">
+        <v>26</v>
+      </c>
+      <c r="B682">
+        <v>20210106</v>
+      </c>
+      <c r="C682" t="s">
+        <v>20</v>
+      </c>
+      <c r="D682" t="s">
+        <v>25</v>
+      </c>
+      <c r="E682" t="s">
+        <v>26</v>
+      </c>
+      <c r="F682" t="s">
+        <v>27</v>
+      </c>
+      <c r="G682" t="s">
+        <v>29</v>
+      </c>
+      <c r="H682" t="s">
+        <v>31</v>
+      </c>
+      <c r="I682">
+        <v>27</v>
+      </c>
+      <c r="J682" t="s">
+        <v>121</v>
+      </c>
+      <c r="K682" t="s">
+        <v>154</v>
+      </c>
+      <c r="L682">
+        <v>6327</v>
+      </c>
+      <c r="M682">
+        <v>2021</v>
+      </c>
+      <c r="N682">
+        <v>12</v>
+      </c>
+      <c r="O682">
+        <v>1281.155756845374</v>
+      </c>
+      <c r="P682">
+        <v>1286.569891672644</v>
+      </c>
+    </row>
+    <row r="683" spans="1:16">
+      <c r="A683" s="1">
+        <v>27</v>
+      </c>
+      <c r="B683">
+        <v>20210106</v>
+      </c>
+      <c r="C683" t="s">
+        <v>20</v>
+      </c>
+      <c r="D683" t="s">
+        <v>25</v>
+      </c>
+      <c r="E683" t="s">
+        <v>26</v>
+      </c>
+      <c r="F683" t="s">
+        <v>27</v>
+      </c>
+      <c r="G683" t="s">
+        <v>29</v>
+      </c>
+      <c r="H683" t="s">
+        <v>31</v>
+      </c>
+      <c r="I683">
+        <v>28</v>
+      </c>
+      <c r="J683" t="s">
+        <v>129</v>
+      </c>
+      <c r="K683" t="s">
+        <v>153</v>
+      </c>
+      <c r="L683">
+        <v>233</v>
+      </c>
+      <c r="M683">
+        <v>2021</v>
+      </c>
+      <c r="N683">
+        <v>12</v>
+      </c>
+      <c r="O683">
+        <v>1363.230811090413</v>
+      </c>
+      <c r="P683">
+        <v>1363.032080592648</v>
+      </c>
+    </row>
+    <row r="684" spans="1:16">
+      <c r="A684" s="1">
+        <v>28</v>
+      </c>
+      <c r="B684">
+        <v>20210106</v>
+      </c>
+      <c r="C684" t="s">
+        <v>20</v>
+      </c>
+      <c r="D684" t="s">
+        <v>25</v>
+      </c>
+      <c r="E684" t="s">
+        <v>26</v>
+      </c>
+      <c r="F684" t="s">
+        <v>27</v>
+      </c>
+      <c r="G684" t="s">
+        <v>29</v>
+      </c>
+      <c r="H684" t="s">
+        <v>31</v>
+      </c>
+      <c r="I684">
+        <v>29</v>
+      </c>
+      <c r="J684" t="s">
+        <v>35</v>
+      </c>
+      <c r="K684" t="s">
+        <v>150</v>
+      </c>
+      <c r="L684">
+        <v>1486</v>
+      </c>
+      <c r="M684">
+        <v>2021</v>
+      </c>
+      <c r="N684">
+        <v>12</v>
+      </c>
+      <c r="O684">
+        <v>1599.717983905497</v>
+      </c>
+      <c r="P684">
+        <v>1585.273566515667</v>
+      </c>
+    </row>
+    <row r="685" spans="1:16">
+      <c r="A685" s="1">
+        <v>29</v>
+      </c>
+      <c r="B685">
+        <v>20210106</v>
+      </c>
+      <c r="C685" t="s">
+        <v>20</v>
+      </c>
+      <c r="D685" t="s">
+        <v>25</v>
+      </c>
+      <c r="E685" t="s">
+        <v>26</v>
+      </c>
+      <c r="F685" t="s">
+        <v>27</v>
+      </c>
+      <c r="G685" t="s">
+        <v>29</v>
+      </c>
+      <c r="H685" t="s">
+        <v>31</v>
+      </c>
+      <c r="I685">
+        <v>30</v>
+      </c>
+      <c r="J685" t="s">
+        <v>57</v>
+      </c>
+      <c r="K685" t="s">
+        <v>23</v>
+      </c>
+      <c r="L685">
+        <v>83</v>
+      </c>
+      <c r="M685">
+        <v>2021</v>
+      </c>
+      <c r="N685">
+        <v>12</v>
+      </c>
+      <c r="O685">
+        <v>1378.439335205443</v>
+      </c>
+      <c r="P685">
+        <v>1375.355478784211</v>
+      </c>
+    </row>
+    <row r="686" spans="1:16">
+      <c r="A686" s="1">
+        <v>30</v>
+      </c>
+      <c r="B686">
+        <v>20210106</v>
+      </c>
+      <c r="C686" t="s">
+        <v>20</v>
+      </c>
+      <c r="D686" t="s">
+        <v>25</v>
+      </c>
+      <c r="E686" t="s">
+        <v>26</v>
+      </c>
+      <c r="F686" t="s">
+        <v>27</v>
+      </c>
+      <c r="G686" t="s">
+        <v>29</v>
+      </c>
+      <c r="H686" t="s">
+        <v>31</v>
+      </c>
+      <c r="I686">
+        <v>31</v>
+      </c>
+      <c r="J686" t="s">
+        <v>69</v>
+      </c>
+      <c r="K686" t="s">
+        <v>21</v>
+      </c>
+      <c r="L686">
+        <v>1675</v>
+      </c>
+      <c r="M686">
+        <v>2021</v>
+      </c>
+      <c r="N686">
+        <v>12</v>
+      </c>
+      <c r="O686">
+        <v>1344.948580850286</v>
+      </c>
+      <c r="P686">
+        <v>1342.805072389616</v>
+      </c>
+    </row>
+    <row r="687" spans="1:16">
+      <c r="A687" s="1">
+        <v>31</v>
+      </c>
+      <c r="B687">
+        <v>20210106</v>
+      </c>
+      <c r="C687" t="s">
+        <v>20</v>
+      </c>
+      <c r="D687" t="s">
+        <v>25</v>
+      </c>
+      <c r="E687" t="s">
+        <v>26</v>
+      </c>
+      <c r="F687" t="s">
+        <v>27</v>
+      </c>
+      <c r="G687" t="s">
+        <v>29</v>
+      </c>
+      <c r="H687" t="s">
+        <v>31</v>
+      </c>
+      <c r="I687">
+        <v>32</v>
+      </c>
+      <c r="J687" t="s">
+        <v>94</v>
+      </c>
+      <c r="K687" t="s">
+        <v>24</v>
+      </c>
+      <c r="L687">
+        <v>4004</v>
+      </c>
+      <c r="M687">
+        <v>2021</v>
+      </c>
+      <c r="N687">
+        <v>12</v>
+      </c>
+      <c r="O687">
+        <v>1350.625687558856</v>
+      </c>
+      <c r="P687">
+        <v>1347.15572991191</v>
+      </c>
+    </row>
+    <row r="688" spans="1:16">
+      <c r="A688" s="1">
+        <v>32</v>
+      </c>
+      <c r="B688">
+        <v>20210106</v>
+      </c>
+      <c r="C688" t="s">
+        <v>20</v>
+      </c>
+      <c r="D688" t="s">
+        <v>25</v>
+      </c>
+      <c r="E688" t="s">
+        <v>26</v>
+      </c>
+      <c r="F688" t="s">
+        <v>27</v>
+      </c>
+      <c r="G688" t="s">
+        <v>29</v>
+      </c>
+      <c r="H688" t="s">
+        <v>31</v>
+      </c>
+      <c r="I688">
+        <v>33</v>
+      </c>
+      <c r="J688" t="s">
+        <v>130</v>
+      </c>
+      <c r="K688" t="s">
+        <v>24</v>
+      </c>
+      <c r="L688">
+        <v>1617</v>
+      </c>
+      <c r="M688">
+        <v>2021</v>
+      </c>
+      <c r="N688">
+        <v>12</v>
+      </c>
+      <c r="O688">
+        <v>1273.237779794248</v>
+      </c>
+      <c r="P688">
+        <v>1273.07533080414</v>
+      </c>
+    </row>
+    <row r="689" spans="1:16">
+      <c r="A689" s="1">
+        <v>33</v>
+      </c>
+      <c r="B689">
+        <v>20210106</v>
+      </c>
+      <c r="C689" t="s">
+        <v>20</v>
+      </c>
+      <c r="D689" t="s">
+        <v>25</v>
+      </c>
+      <c r="E689" t="s">
+        <v>26</v>
+      </c>
+      <c r="F689" t="s">
+        <v>27</v>
+      </c>
+      <c r="G689" t="s">
+        <v>29</v>
+      </c>
+      <c r="H689" t="s">
+        <v>31</v>
+      </c>
+      <c r="I689">
+        <v>34</v>
+      </c>
+      <c r="J689" t="s">
+        <v>142</v>
+      </c>
+      <c r="K689" t="s">
+        <v>150</v>
+      </c>
+      <c r="L689">
+        <v>1866</v>
+      </c>
+      <c r="M689">
+        <v>2021</v>
+      </c>
+      <c r="N689">
+        <v>12</v>
+      </c>
+      <c r="O689">
+        <v>1323.036057059431</v>
+      </c>
+      <c r="P689">
+        <v>1319.13986320364</v>
+      </c>
+    </row>
+    <row r="690" spans="1:16">
+      <c r="A690" s="1">
+        <v>34</v>
+      </c>
+      <c r="B690">
+        <v>20210106</v>
+      </c>
+      <c r="C690" t="s">
+        <v>20</v>
+      </c>
+      <c r="D690" t="s">
+        <v>25</v>
+      </c>
+      <c r="E690" t="s">
+        <v>26</v>
+      </c>
+      <c r="F690" t="s">
+        <v>27</v>
+      </c>
+      <c r="G690" t="s">
+        <v>29</v>
+      </c>
+      <c r="H690" t="s">
+        <v>31</v>
+      </c>
+      <c r="I690">
+        <v>35</v>
+      </c>
+      <c r="J690" t="s">
+        <v>125</v>
+      </c>
+      <c r="K690" t="s">
+        <v>24</v>
+      </c>
+      <c r="L690">
+        <v>1682</v>
+      </c>
+      <c r="M690">
+        <v>2021</v>
+      </c>
+      <c r="N690">
+        <v>12</v>
+      </c>
+      <c r="O690">
+        <v>1236.146114652961</v>
+      </c>
+      <c r="P690">
+        <v>1235.898881918477</v>
+      </c>
+    </row>
+    <row r="691" spans="1:16">
+      <c r="A691" s="1">
+        <v>35</v>
+      </c>
+      <c r="B691">
+        <v>20210106</v>
+      </c>
+      <c r="C691" t="s">
+        <v>20</v>
+      </c>
+      <c r="D691" t="s">
+        <v>25</v>
+      </c>
+      <c r="E691" t="s">
+        <v>26</v>
+      </c>
+      <c r="F691" t="s">
+        <v>27</v>
+      </c>
+      <c r="G691" t="s">
+        <v>29</v>
+      </c>
+      <c r="H691" t="s">
+        <v>31</v>
+      </c>
+      <c r="I691">
+        <v>36</v>
+      </c>
+      <c r="J691" t="s">
+        <v>116</v>
+      </c>
+      <c r="K691" t="s">
+        <v>25</v>
+      </c>
+      <c r="L691">
+        <v>4009</v>
+      </c>
+      <c r="M691">
+        <v>2021</v>
+      </c>
+      <c r="N691">
+        <v>12</v>
+      </c>
+      <c r="O691">
+        <v>1299.035565048679</v>
+      </c>
+      <c r="P691">
+        <v>1294.476971128932</v>
+      </c>
+    </row>
+    <row r="692" spans="1:16">
+      <c r="A692" s="1">
+        <v>36</v>
+      </c>
+      <c r="B692">
+        <v>20210106</v>
+      </c>
+      <c r="C692" t="s">
+        <v>20</v>
+      </c>
+      <c r="D692" t="s">
+        <v>25</v>
+      </c>
+      <c r="E692" t="s">
+        <v>26</v>
+      </c>
+      <c r="F692" t="s">
+        <v>27</v>
+      </c>
+      <c r="G692" t="s">
+        <v>29</v>
+      </c>
+      <c r="H692" t="s">
+        <v>31</v>
+      </c>
+      <c r="I692">
+        <v>37</v>
+      </c>
+      <c r="J692" t="s">
+        <v>91</v>
+      </c>
+      <c r="K692" t="s">
+        <v>157</v>
+      </c>
+      <c r="L692">
+        <v>551</v>
+      </c>
+      <c r="M692">
+        <v>2021</v>
+      </c>
+      <c r="N692">
+        <v>12</v>
+      </c>
+      <c r="O692">
+        <v>1279.330237329782</v>
+      </c>
+      <c r="P692">
+        <v>1274.842410635587</v>
+      </c>
+    </row>
+    <row r="693" spans="1:16">
+      <c r="A693" s="1">
+        <v>37</v>
+      </c>
+      <c r="B693">
+        <v>20210106</v>
+      </c>
+      <c r="C693" t="s">
+        <v>20</v>
+      </c>
+      <c r="D693" t="s">
+        <v>25</v>
+      </c>
+      <c r="E693" t="s">
+        <v>26</v>
+      </c>
+      <c r="F693" t="s">
+        <v>27</v>
+      </c>
+      <c r="G693" t="s">
+        <v>29</v>
+      </c>
+      <c r="H693" t="s">
+        <v>31</v>
+      </c>
+      <c r="I693">
+        <v>38</v>
+      </c>
+      <c r="J693" t="s">
+        <v>40</v>
+      </c>
+      <c r="K693" t="s">
+        <v>150</v>
+      </c>
+      <c r="L693">
+        <v>3211</v>
+      </c>
+      <c r="M693">
+        <v>2021</v>
+      </c>
+      <c r="N693">
+        <v>12</v>
+      </c>
+      <c r="O693">
+        <v>1472.305266600372</v>
+      </c>
+      <c r="P693">
+        <v>1455.740911516336</v>
+      </c>
+    </row>
+    <row r="694" spans="1:16">
+      <c r="A694" s="1">
+        <v>38</v>
+      </c>
+      <c r="B694">
+        <v>20210106</v>
+      </c>
+      <c r="C694" t="s">
+        <v>20</v>
+      </c>
+      <c r="D694" t="s">
+        <v>25</v>
+      </c>
+      <c r="E694" t="s">
+        <v>26</v>
+      </c>
+      <c r="F694" t="s">
+        <v>27</v>
+      </c>
+      <c r="G694" t="s">
+        <v>29</v>
+      </c>
+      <c r="H694" t="s">
+        <v>31</v>
+      </c>
+      <c r="I694">
+        <v>39</v>
+      </c>
+      <c r="J694" t="s">
+        <v>103</v>
+      </c>
+      <c r="K694" t="s">
+        <v>155</v>
+      </c>
+      <c r="L694">
+        <v>661</v>
+      </c>
+      <c r="M694">
+        <v>2021</v>
+      </c>
+      <c r="N694">
+        <v>12</v>
+      </c>
+      <c r="O694">
+        <v>1240.598894072667</v>
+      </c>
+      <c r="P694">
+        <v>1236.128111213352</v>
+      </c>
+    </row>
+    <row r="695" spans="1:16">
+      <c r="A695" s="1">
+        <v>39</v>
+      </c>
+      <c r="B695">
+        <v>20210106</v>
+      </c>
+      <c r="C695" t="s">
+        <v>20</v>
+      </c>
+      <c r="D695" t="s">
+        <v>25</v>
+      </c>
+      <c r="E695" t="s">
+        <v>26</v>
+      </c>
+      <c r="F695" t="s">
+        <v>27</v>
+      </c>
+      <c r="G695" t="s">
+        <v>29</v>
+      </c>
+      <c r="H695" t="s">
+        <v>31</v>
+      </c>
+      <c r="I695">
+        <v>40</v>
+      </c>
+      <c r="J695" t="s">
+        <v>146</v>
+      </c>
+      <c r="K695" t="s">
+        <v>25</v>
+      </c>
+      <c r="L695">
+        <v>9084</v>
+      </c>
+      <c r="M695">
+        <v>2021</v>
+      </c>
+      <c r="N695">
+        <v>12</v>
+      </c>
+      <c r="O695">
+        <v>1277.007839610487</v>
+      </c>
+      <c r="P695">
+        <v>1269.64437657753</v>
+      </c>
+    </row>
+    <row r="696" spans="1:16">
+      <c r="A696" s="1">
+        <v>40</v>
+      </c>
+      <c r="B696">
+        <v>20210106</v>
+      </c>
+      <c r="C696" t="s">
+        <v>20</v>
+      </c>
+      <c r="D696" t="s">
+        <v>25</v>
+      </c>
+      <c r="E696" t="s">
+        <v>26</v>
+      </c>
+      <c r="F696" t="s">
+        <v>27</v>
+      </c>
+      <c r="G696" t="s">
+        <v>29</v>
+      </c>
+      <c r="H696" t="s">
+        <v>31</v>
+      </c>
+      <c r="I696">
+        <v>41</v>
+      </c>
+      <c r="J696" t="s">
+        <v>72</v>
+      </c>
+      <c r="K696" t="s">
+        <v>155</v>
+      </c>
+      <c r="L696">
+        <v>1846</v>
+      </c>
+      <c r="M696">
+        <v>2021</v>
+      </c>
+      <c r="N696">
+        <v>12</v>
+      </c>
+      <c r="O696">
+        <v>1357.297443382499</v>
+      </c>
+      <c r="P696">
+        <v>1344.442383378463</v>
+      </c>
+    </row>
+    <row r="697" spans="1:16">
+      <c r="A697" s="1">
+        <v>41</v>
+      </c>
+      <c r="B697">
+        <v>20210106</v>
+      </c>
+      <c r="C697" t="s">
+        <v>20</v>
+      </c>
+      <c r="D697" t="s">
+        <v>25</v>
+      </c>
+      <c r="E697" t="s">
+        <v>26</v>
+      </c>
+      <c r="F697" t="s">
+        <v>27</v>
+      </c>
+      <c r="G697" t="s">
+        <v>29</v>
+      </c>
+      <c r="H697" t="s">
+        <v>31</v>
+      </c>
+      <c r="I697">
+        <v>42</v>
+      </c>
+      <c r="J697" t="s">
+        <v>74</v>
+      </c>
+      <c r="K697" t="s">
+        <v>157</v>
+      </c>
+      <c r="L697">
+        <v>3198</v>
+      </c>
+      <c r="M697">
+        <v>2021</v>
+      </c>
+      <c r="N697">
+        <v>12</v>
+      </c>
+      <c r="O697">
+        <v>1342.277949894143</v>
+      </c>
+      <c r="P697">
+        <v>1329.287582655477</v>
+      </c>
+    </row>
+    <row r="698" spans="1:16">
+      <c r="A698" s="1">
+        <v>42</v>
+      </c>
+      <c r="B698">
+        <v>20210106</v>
+      </c>
+      <c r="C698" t="s">
+        <v>20</v>
+      </c>
+      <c r="D698" t="s">
+        <v>25</v>
+      </c>
+      <c r="E698" t="s">
+        <v>26</v>
+      </c>
+      <c r="F698" t="s">
+        <v>27</v>
+      </c>
+      <c r="G698" t="s">
+        <v>29</v>
+      </c>
+      <c r="H698" t="s">
+        <v>31</v>
+      </c>
+      <c r="I698">
+        <v>43</v>
+      </c>
+      <c r="J698" t="s">
+        <v>96</v>
+      </c>
+      <c r="K698" t="s">
+        <v>157</v>
+      </c>
+      <c r="L698">
+        <v>1595</v>
+      </c>
+      <c r="M698">
+        <v>2021</v>
+      </c>
+      <c r="N698">
+        <v>12</v>
+      </c>
+      <c r="O698">
+        <v>1188.508750081704</v>
+      </c>
+      <c r="P698">
+        <v>1182.53152917859</v>
+      </c>
+    </row>
+    <row r="699" spans="1:16">
+      <c r="A699" s="1">
+        <v>43</v>
+      </c>
+      <c r="B699">
+        <v>20210106</v>
+      </c>
+      <c r="C699" t="s">
+        <v>20</v>
+      </c>
+      <c r="D699" t="s">
+        <v>25</v>
+      </c>
+      <c r="E699" t="s">
+        <v>26</v>
+      </c>
+      <c r="F699" t="s">
+        <v>27</v>
+      </c>
+      <c r="G699" t="s">
+        <v>29</v>
+      </c>
+      <c r="H699" t="s">
+        <v>31</v>
+      </c>
+      <c r="I699">
+        <v>44</v>
+      </c>
+      <c r="J699" t="s">
+        <v>115</v>
+      </c>
+      <c r="K699" t="s">
+        <v>25</v>
+      </c>
+      <c r="L699">
+        <v>629</v>
+      </c>
+      <c r="M699">
+        <v>2021</v>
+      </c>
+      <c r="N699">
+        <v>12</v>
+      </c>
+      <c r="O699">
+        <v>1286.828815934476</v>
+      </c>
+      <c r="P699">
+        <v>1274.936729381042</v>
+      </c>
+    </row>
+    <row r="700" spans="1:16">
+      <c r="A700" s="1">
+        <v>44</v>
+      </c>
+      <c r="B700">
+        <v>20210106</v>
+      </c>
+      <c r="C700" t="s">
+        <v>20</v>
+      </c>
+      <c r="D700" t="s">
+        <v>25</v>
+      </c>
+      <c r="E700" t="s">
+        <v>26</v>
+      </c>
+      <c r="F700" t="s">
+        <v>27</v>
+      </c>
+      <c r="G700" t="s">
+        <v>29</v>
+      </c>
+      <c r="H700" t="s">
+        <v>31</v>
+      </c>
+      <c r="I700">
+        <v>45</v>
+      </c>
+      <c r="J700" t="s">
+        <v>148</v>
+      </c>
+      <c r="K700" t="s">
+        <v>153</v>
+      </c>
+      <c r="L700">
+        <v>5537</v>
+      </c>
+      <c r="M700">
+        <v>2021</v>
+      </c>
+      <c r="N700">
+        <v>12</v>
+      </c>
+      <c r="O700">
+        <v>1236.424262605149</v>
+      </c>
+      <c r="P700">
+        <v>1226.163119299209</v>
+      </c>
+    </row>
+    <row r="701" spans="1:16">
+      <c r="A701" s="1">
+        <v>45</v>
+      </c>
+      <c r="B701">
+        <v>20210106</v>
+      </c>
+      <c r="C701" t="s">
+        <v>20</v>
+      </c>
+      <c r="D701" t="s">
+        <v>25</v>
+      </c>
+      <c r="E701" t="s">
+        <v>26</v>
+      </c>
+      <c r="F701" t="s">
+        <v>27</v>
+      </c>
+      <c r="G701" t="s">
+        <v>29</v>
+      </c>
+      <c r="H701" t="s">
+        <v>31</v>
+      </c>
+      <c r="I701">
+        <v>46</v>
+      </c>
+      <c r="J701" t="s">
+        <v>145</v>
+      </c>
+      <c r="K701" t="s">
+        <v>159</v>
+      </c>
+      <c r="L701">
+        <v>3262</v>
+      </c>
+      <c r="M701">
+        <v>2021</v>
+      </c>
+      <c r="N701">
+        <v>12</v>
+      </c>
+      <c r="O701">
+        <v>1244.757521360708</v>
+      </c>
+      <c r="P701">
+        <v>1233.076317731727</v>
+      </c>
+    </row>
+    <row r="702" spans="1:16">
+      <c r="A702" s="1">
+        <v>46</v>
+      </c>
+      <c r="B702">
+        <v>20210106</v>
+      </c>
+      <c r="C702" t="s">
+        <v>20</v>
+      </c>
+      <c r="D702" t="s">
+        <v>25</v>
+      </c>
+      <c r="E702" t="s">
+        <v>26</v>
+      </c>
+      <c r="F702" t="s">
+        <v>27</v>
+      </c>
+      <c r="G702" t="s">
+        <v>29</v>
+      </c>
+      <c r="H702" t="s">
+        <v>31</v>
+      </c>
+      <c r="I702">
+        <v>47</v>
+      </c>
+      <c r="J702" t="s">
+        <v>147</v>
+      </c>
+      <c r="K702" t="s">
+        <v>159</v>
+      </c>
+      <c r="L702">
+        <v>2483</v>
+      </c>
+      <c r="M702">
+        <v>2021</v>
+      </c>
+      <c r="N702">
+        <v>12</v>
+      </c>
+      <c r="O702">
+        <v>1233.96736829167</v>
+      </c>
+      <c r="P702">
+        <v>1221.828847766385</v>
+      </c>
+    </row>
+    <row r="703" spans="1:16">
+      <c r="A703" s="1">
+        <v>47</v>
+      </c>
+      <c r="B703">
+        <v>20210106</v>
+      </c>
+      <c r="C703" t="s">
+        <v>20</v>
+      </c>
+      <c r="D703" t="s">
+        <v>25</v>
+      </c>
+      <c r="E703" t="s">
+        <v>26</v>
+      </c>
+      <c r="F703" t="s">
+        <v>27</v>
+      </c>
+      <c r="G703" t="s">
+        <v>29</v>
+      </c>
+      <c r="H703" t="s">
+        <v>31</v>
+      </c>
+      <c r="I703">
+        <v>48</v>
+      </c>
+      <c r="J703" t="s">
+        <v>84</v>
+      </c>
+      <c r="K703" t="s">
+        <v>154</v>
+      </c>
+      <c r="L703">
+        <v>6457</v>
+      </c>
+      <c r="M703">
+        <v>2021</v>
+      </c>
+      <c r="N703">
+        <v>12</v>
+      </c>
+      <c r="O703">
+        <v>1157.231076225997</v>
+      </c>
+      <c r="P703">
+        <v>1147.613760858072</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
